--- a/MedicalLink/Templates/BC_BenhNhanNoiTru_01.xlsx
+++ b/MedicalLink/Templates/BC_BenhNhanNoiTru_01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>STT</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>&amp;=[DATA1].DATHANHTOAN_TYLE_THUOC_TONG</t>
+  </si>
+  <si>
+    <t>Tiền thuốc</t>
+  </si>
+  <si>
+    <t>Tiền vật tư</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].RAVIENCHUATT_THUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].RAVIENCHUATT_VATTU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DANGDT_THUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DANGDT_VATTU</t>
   </si>
 </sst>
 </file>
@@ -373,6 +391,24 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,12 +418,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -395,18 +425,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -707,92 +725,106 @@
     <col min="1" max="1" width="7.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" style="3" customWidth="1"/>
     <col min="3" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="17" width="17.5703125" style="1" customWidth="1"/>
-    <col min="18" max="20" width="10.140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="8" width="18.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="17.140625" style="1" customWidth="1"/>
+    <col min="14" max="21" width="17.5703125" style="1" customWidth="1"/>
+    <col min="22" max="24" width="10.140625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
-    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="15" t="s">
+    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="23" t="s">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18" t="s">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="18" t="s">
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="24"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+    <row r="8" spans="1:24" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
@@ -803,52 +835,64 @@
         <v>12</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="T8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="U8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="V8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="W8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="X8" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -868,49 +912,61 @@
         <v>6</v>
       </c>
       <c r="G9" s="7">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
         <v>7</v>
       </c>
-      <c r="H9" s="7">
+      <c r="J9" s="7">
         <v>8</v>
       </c>
-      <c r="I9" s="7">
+      <c r="K9" s="7">
+        <v>6</v>
+      </c>
+      <c r="L9" s="7">
+        <v>6</v>
+      </c>
+      <c r="M9" s="7">
         <v>9</v>
       </c>
-      <c r="J9" s="7">
+      <c r="N9" s="7">
         <v>10</v>
       </c>
-      <c r="K9" s="7">
+      <c r="O9" s="7">
         <v>11</v>
       </c>
-      <c r="L9" s="7">
+      <c r="P9" s="7">
         <v>12</v>
       </c>
-      <c r="M9" s="7">
+      <c r="Q9" s="7">
         <v>13</v>
       </c>
-      <c r="N9" s="7">
+      <c r="R9" s="7">
         <v>14</v>
       </c>
-      <c r="O9" s="7">
+      <c r="S9" s="7">
         <v>15</v>
       </c>
-      <c r="P9" s="7">
+      <c r="T9" s="7">
         <v>16</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="U9" s="7">
         <v>17</v>
       </c>
-      <c r="R9" s="7">
+      <c r="V9" s="7">
         <v>18</v>
       </c>
-      <c r="S9" s="7">
+      <c r="W9" s="7">
         <v>19</v>
       </c>
-      <c r="T9" s="7">
+      <c r="X9" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -927,62 +983,74 @@
         <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:24" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="12">
         <f>SUM(C10:C10)</f>
         <v>0</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" ref="D11:T11" si="0">SUM(D10:D10)</f>
+        <f t="shared" ref="D11:X11" si="0">SUM(D10:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="12">
@@ -990,11 +1058,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F11:G11" si="1">SUM(F10:F10)</f>
         <v>0</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="12">
@@ -1049,28 +1117,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="U11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q14" s="13" t="s">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D2:S2"/>
+    <mergeCell ref="D3:S3"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="S7:U7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="V7:X7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_BenhNhanNoiTru_01.xlsx
+++ b/MedicalLink/Templates/BC_BenhNhanNoiTru_01.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
     <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
     <t>Bảo hiểm</t>
   </si>
   <si>
-    <t>Nhân dân</t>
-  </si>
-  <si>
-    <t>Tổng</t>
-  </si>
-  <si>
     <t>Tổng tiền</t>
   </si>
   <si>
@@ -74,24 +65,12 @@
     <t>Bệnh nhân đã thanh toán</t>
   </si>
   <si>
-    <t>Tiền bảo hiểm</t>
-  </si>
-  <si>
-    <t>Tiền viện phí</t>
-  </si>
-  <si>
     <t>Bệnh nhân ra viện chưa thanh toán</t>
   </si>
   <si>
     <t>Tiền thuốc bệnh nhân đã thanh toán</t>
   </si>
   <si>
-    <t>Tiền thuốc bảo hiểm</t>
-  </si>
-  <si>
-    <t>Tiền thuốc viện phí</t>
-  </si>
-  <si>
     <t>Tỷ lệ thuốc</t>
   </si>
   <si>
@@ -104,76 +83,118 @@
     <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].DANGDT_SLBN_BHYT</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DANGDT_SLBN_NHANDAN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DANGDT_SLBN_TONG</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].DANGDT_TONGTIEN</t>
   </si>
   <si>
     <t>&amp;=[DATA1].DANGDT_TAMUNG</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].RAVIENCHUATT_SLBN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].RAVIENCHUATT_TONGTIEN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].RAVIENCHUATT_TAMUNG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DATHANHTOAN_SOTIEN_BHYT</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DATHANHTOAN_SOTIEN_NHANDAN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DATHANHTOAN_SOTIEN_TONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DATHANHTOAN_THUOC_BHYT</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DATHANHTOAN_TAMUNG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DATHANHTOAN_THUOC_NHANDAN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DATHANHTOAN_THUOC_TONG</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DATHANHTOAN_TYLE_THUOC_BHYT</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DATHANHTOAN_TYLE_THUOC_NHANDAN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DATHANHTOAN_TYLE_THUOC_TONG</t>
-  </si>
-  <si>
     <t>Tiền thuốc</t>
   </si>
   <si>
     <t>Tiền vật tư</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].RAVIENCHUATT_THUOC</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].RAVIENCHUATT_VATTU</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DANGDT_THUOC</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].DANGDT_VATTU</t>
+    <t>&amp;=[DATA1].DANGDT_SLBN_BH</t>
+  </si>
+  <si>
+    <t>SL Bảo hiểm</t>
+  </si>
+  <si>
+    <t>SL Nhân dân</t>
+  </si>
+  <si>
+    <t>SL Tổng</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DANGDT_SLBN_VP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DANGDT_SLBN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DANGDT_TIENTHUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DANGDT_TIENVATTU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHUATT_SLBN_BH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHUATT_SLBN_VP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHUATT_SLBN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHUATT_TIENTHUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHUATT_TIENVATTU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHUATT_TONGTIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHUATT_TAMUNG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_SLBN_BH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_SLBN_VP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_SLBN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TIENTHUOC_BH</t>
+  </si>
+  <si>
+    <t>Tiền thuốc BHYT</t>
+  </si>
+  <si>
+    <t>Tiền thuốc Viện phí</t>
+  </si>
+  <si>
+    <t>Tổng tiền thuốc</t>
+  </si>
+  <si>
+    <t>Tổng tiền BHYT</t>
+  </si>
+  <si>
+    <t>Tổng tiền viện phí</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TIENTHUOC_VP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TIENTHUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TIENVATTU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TONGTIEN_BH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TONGTIEN_VP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TONGTIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TAMUNG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TYLE_THUOC_BH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TYLE_THUOC_VP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DATT_TYLE_THUOC</t>
   </si>
 </sst>
 </file>
@@ -184,7 +205,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +248,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +273,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -359,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -379,9 +417,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -391,6 +426,21 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,29 +453,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -714,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="V4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,173 +789,229 @@
     <col min="2" max="2" width="32.7109375" style="3" customWidth="1"/>
     <col min="3" max="5" width="13.28515625" style="1" customWidth="1"/>
     <col min="6" max="8" width="18.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
-    <col min="11" max="13" width="17.140625" style="1" customWidth="1"/>
-    <col min="14" max="21" width="17.5703125" style="1" customWidth="1"/>
-    <col min="22" max="24" width="10.140625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="11" width="17.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="17.140625" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5703125" style="1" customWidth="1"/>
+    <col min="20" max="23" width="17.5703125" style="30" customWidth="1"/>
+    <col min="24" max="30" width="17.5703125" style="1" customWidth="1"/>
+    <col min="31" max="33" width="10.140625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:33" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="C7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="16"/>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
+    <row r="8" spans="1:33" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:24" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="W7" s="23"/>
-      <c r="X7" s="24"/>
-    </row>
-    <row r="8" spans="1:24" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -912,249 +1031,339 @@
         <v>6</v>
       </c>
       <c r="G9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K9" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M9" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O9" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R9" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S9" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T9" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U9" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V9" s="7">
+        <v>22</v>
+      </c>
+      <c r="W9" s="7">
+        <v>23</v>
+      </c>
+      <c r="X9" s="7">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>26</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>27</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>29</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>32</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="7">
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="7">
+      <c r="I10" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="J10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD10" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG10" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>43</v>
+    <row r="11" spans="1:33" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="11">
+        <f>SUM(C10:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" ref="D11:AG11" si="0">SUM(D10:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="33">
+        <f t="shared" ref="U11" si="1">SUM(U10:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="33">
+        <f t="shared" ref="V11" si="2">SUM(V10:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="33">
+        <f t="shared" ref="W11" si="3">SUM(W10:W10)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="33">
+        <f t="shared" ref="X11" si="4">SUM(X10:X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="33">
+        <f t="shared" ref="AB11" si="5">SUM(AB10:AB10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="33">
+        <f t="shared" ref="AC11" si="6">SUM(AC10:AC10)</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="33">
+        <f t="shared" ref="AD11" si="7">SUM(AD10:AD10)</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12">
-        <f>SUM(C10:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" ref="D11:X11" si="0">SUM(D10:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" ref="F11:G11" si="1">SUM(F10:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D2:S2"/>
-    <mergeCell ref="D3:S3"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="S7:U7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:I7"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="Q7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_BenhNhanNoiTru_01.xlsx
+++ b/MedicalLink/Templates/BC_BenhNhanNoiTru_01.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -195,6 +192,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].DATT_TYLE_THUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -426,69 +429,75 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -779,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,87 +802,90 @@
     <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
     <col min="13" max="15" width="17.140625" style="1" customWidth="1"/>
     <col min="16" max="19" width="17.5703125" style="1" customWidth="1"/>
-    <col min="20" max="23" width="17.5703125" style="30" customWidth="1"/>
+    <col min="20" max="23" width="17.5703125" style="15" customWidth="1"/>
     <col min="24" max="30" width="17.5703125" style="1" customWidth="1"/>
     <col min="31" max="33" width="10.140625" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:33" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="D2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
+      <c r="A2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="D2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
+      <c r="D3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
     </row>
     <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:33" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>8</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -881,134 +893,134 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="14" t="s">
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="16"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="28"/>
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="27" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>11</v>
-      </c>
       <c r="J8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="M8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="O8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="S8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="31" t="s">
+      <c r="V8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="V8" s="31" t="s">
+      <c r="W8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="W8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="X8" s="28" t="s">
+      <c r="Y8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Y8" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="28" t="s">
+      <c r="Z8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB8" s="31" t="s">
+      <c r="AB8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AC8" s="31" t="s">
+      <c r="AD8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="31" t="s">
-        <v>44</v>
-      </c>
       <c r="AE8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG8" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="AG8" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1114,110 +1126,110 @@
     </row>
     <row r="10" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="I10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="R10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="S10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="T10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="32" t="s">
+      <c r="U10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="W10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="32" t="s">
+      <c r="X10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="X10" s="32" t="s">
+      <c r="Y10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Z10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="10" t="s">
+      <c r="AA10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="10" t="s">
+      <c r="AB10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AB10" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD10" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE10" s="10" t="s">
+      <c r="AF10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AF10" s="10" t="s">
+      <c r="AG10" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="AG10" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="18"/>
+      <c r="A11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="11">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1286,23 +1298,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="33">
+      <c r="T11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
         <f t="shared" ref="U11" si="1">SUM(U10:U10)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="33">
+      <c r="V11" s="18">
         <f t="shared" ref="V11" si="2">SUM(V10:V10)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="33">
+      <c r="W11" s="18">
         <f t="shared" ref="W11" si="3">SUM(W10:W10)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="33">
+      <c r="X11" s="18">
         <f t="shared" ref="X11" si="4">SUM(X10:X10)</f>
         <v>0</v>
       </c>
@@ -1318,15 +1330,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="33">
+      <c r="AB11" s="18">
         <f t="shared" ref="AB11" si="5">SUM(AB10:AB10)</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="33">
+      <c r="AC11" s="18">
         <f t="shared" ref="AC11" si="6">SUM(AC10:AC10)</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="33">
+      <c r="AD11" s="18">
         <f t="shared" ref="AD11" si="7">SUM(AD10:AD10)</f>
         <v>0</v>
       </c>
@@ -1344,15 +1356,21 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AD14" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="21"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="21"/>
+      <c r="AD14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="D2:AB2"/>
+    <mergeCell ref="D3:AB3"/>
+    <mergeCell ref="Q7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -1360,10 +1378,6 @@
     <mergeCell ref="AD14:AG14"/>
     <mergeCell ref="AE7:AG7"/>
     <mergeCell ref="J7:P7"/>
-    <mergeCell ref="D2:AB2"/>
-    <mergeCell ref="D3:AB3"/>
-    <mergeCell ref="Q7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
